--- a/.gitbook/assets/DDcredits beta.xlsx
+++ b/.gitbook/assets/DDcredits beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="736" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="736" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Notice&amp;Materials" sheetId="10" r:id="rId1"/>
@@ -21,12 +21,25 @@
     <sheet name="ECE+BME" sheetId="13" r:id="rId12"/>
     <sheet name="versions" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -50,8 +63,8 @@
 2.This checksheet only includes some choices offered by the Michigen Engineering. I am looking for the checksheet of more choices and similar work in the LSA.
 3.This checksheet does not include prerequisites for some choices. Some prerequisites is omitted if completed before the course is availble and some are question marks for not found. For prerequisites, please refer to the materials listed below.
 4. More credits may not indicate heavier workload. It depends more on the difficulty of the course itself.
-5. This checksheet only offers the choice of the least credits. More courses and credits can be selected and substituded for personal development.
-5. Hope this checksheet will help you and wish you a successful application!
+5. This checksheet only offers the choice of the least credits. More courses and credits can be selected or substituded for personal development.
+6. Hope this checksheet will help you and wish you a successful application!
 Li Mingrui 2023.8.15</t>
     </r>
   </si>
@@ -237,9 +250,6 @@
     <t>ME2500J</t>
   </si>
   <si>
-    <t>MATH1160J/MATH1560J/MATH1860J, ENGR1010J,ME0801J</t>
-  </si>
-  <si>
     <t>ME3200J</t>
   </si>
   <si>
@@ -256,6 +266,9 @@
   </si>
   <si>
     <t>ME3600J</t>
+  </si>
+  <si>
+    <t>ME2400J, ECE2150J</t>
   </si>
   <si>
     <t>ME3820J</t>
@@ -275,10 +288,13 @@
     <t>ME4500J</t>
   </si>
   <si>
-    <t>ME3500J, ME3600J, ME3950J</t>
+    <t>ME3500J, ME3600J, ME3950J (NO OVERRIDE!)</t>
   </si>
   <si>
     <t>ME4950J</t>
+  </si>
+  <si>
+    <t>ME3950J (If taken with 4500, not adviced to have other program subjects)</t>
   </si>
   <si>
     <t>ME3500J,ME3600J</t>
@@ -725,12 +741,21 @@
   </si>
   <si>
     <t>ME+EE corrected.</t>
+  </si>
+  <si>
+    <t>24.3.11</t>
+  </si>
+  <si>
+    <t>beta 0.2.2</t>
+  </si>
+  <si>
+    <t>ME-SERIES UPDATED.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -785,34 +810,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -826,14 +823,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,6 +862,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,7 +927,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,55 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,31 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1029,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1070,7 +1053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1101,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,6 +1132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,21 +1173,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1191,6 +1201,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,152 +1274,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,13 +1435,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,10 +1471,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -1455,52 +1486,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1774,7 +1805,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1785,16 +1816,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="201" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1802,7 +1833,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1810,7 +1841,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1818,7 +1849,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1826,7 +1857,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1834,7 +1865,7 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1842,7 +1873,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1850,7 +1881,7 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1858,7 +1889,7 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1866,7 +1897,7 @@
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1874,7 +1905,7 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1882,7 +1913,7 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1890,7 +1921,7 @@
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1898,7 +1929,7 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1906,7 +1937,7 @@
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1921,12 +1952,12 @@
     <hyperlink ref="B6" r:id="rId4" display="https://docs.google.com/presentation/d/1NgCbvWIVE4NbU7TpF0ABiA8yI4Tb8_jZOftySfoh8Ow/"/>
     <hyperlink ref="B7" r:id="rId5" display="https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/electrical-engineering/"/>
     <hyperlink ref="B8" r:id="rId6" display="https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/computer-engineering/"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://cse.engin.umich.edu/academics/undergraduate/programs/computer-science-eng/"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://cse.engin.umich.edu/academics/undergraduate/programs/computer-science-eng/" tooltip="https://cse.engin.umich.edu/academics/undergraduate/programs/computer-science-eng/"/>
     <hyperlink ref="B10" r:id="rId8" display="https://cse.engin.umich.edu/academics/undergraduate/programs/data-science-eng/"/>
     <hyperlink ref="B11" r:id="rId9" display="https://me.engin.umich.edu/academics/undergrad/handbook/bachelors/"/>
     <hyperlink ref="B12" r:id="rId10" display="https://aero.engin.umich.edu/undergraduate/degree-requirements/"/>
     <hyperlink ref="B13" r:id="rId11" display="https://bulletin.engin.umich.edu/courses/" tooltip="https://bulletin.engin.umich.edu/courses/"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx" tooltip="https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx"/>
     <hyperlink ref="B15" r:id="rId13" display="https://www.ji.sjtu.edu.cn/academics/courses/present-course-offerings/"/>
     <hyperlink ref="B16" r:id="rId14" display="https://drive.google.com/file/d/14QF3MqCgi1CiClNHht8Rti5KURZKWNJl/view"/>
   </hyperlinks>
@@ -2003,7 +2034,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -2061,7 +2092,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -2075,7 +2106,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -2112,7 +2143,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -2120,7 +2151,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -2128,7 +2159,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2136,7 +2167,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2144,7 +2175,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2152,7 +2183,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2160,7 +2191,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2168,7 +2199,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2176,7 +2207,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2184,7 +2215,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -2192,7 +2223,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -2200,7 +2231,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1">
         <v>47</v>
@@ -2208,7 +2239,7 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -2216,7 +2247,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -2224,7 +2255,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -2232,7 +2263,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -2240,7 +2271,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -2248,7 +2279,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -2256,7 +2287,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -2264,7 +2295,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
@@ -2272,7 +2303,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
@@ -2280,7 +2311,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -2288,7 +2319,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2296,7 +2327,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -2304,7 +2335,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
@@ -2312,7 +2343,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
@@ -2320,7 +2351,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -2328,7 +2359,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2">
         <v>188</v>
@@ -2346,7 +2377,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2408,7 +2439,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -2480,7 +2511,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2498,7 +2529,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>28</v>
@@ -2541,7 +2572,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -2549,7 +2580,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2557,7 +2588,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2565,7 +2596,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -2573,7 +2604,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -2581,7 +2612,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2589,7 +2620,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2597,7 +2628,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2605,7 +2636,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2613,7 +2644,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -2621,7 +2652,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -2635,7 +2666,7 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1">
         <v>29</v>
@@ -2649,7 +2680,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -2663,7 +2694,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -2677,7 +2708,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2">
         <v>189</v>
@@ -2761,7 +2792,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -2819,7 +2850,7 @@
     </row>
     <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -2837,7 +2868,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -2880,7 +2911,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -2888,7 +2919,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -2896,7 +2927,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2904,7 +2935,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2912,7 +2943,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2920,7 +2951,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2928,7 +2959,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2936,7 +2967,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2944,7 +2975,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2952,7 +2983,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -2960,7 +2991,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -2974,7 +3005,7 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1">
         <v>50</v>
@@ -2988,7 +3019,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -3002,7 +3033,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -3016,7 +3047,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -3024,7 +3055,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -3032,7 +3063,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -3040,7 +3071,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -3048,7 +3079,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -3056,7 +3087,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -3064,7 +3095,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -3072,7 +3103,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -3080,23 +3111,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B38" s="2">
         <v>191</v>
@@ -3111,13 +3142,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="126.375" customWidth="1"/>
@@ -3125,46 +3156,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3178,51 +3220,51 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="46.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="46.75" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:11">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3243,26 +3285,26 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
         <v>39</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>12</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2">
         <v>4</v>
       </c>
@@ -3274,22 +3316,22 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2">
         <v>4</v>
       </c>
@@ -3298,13 +3340,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="14"/>
       <c r="H7" s="2">
         <v>5</v>
       </c>
@@ -3313,13 +3355,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2">
         <v>4</v>
       </c>
@@ -3328,213 +3370,216 @@
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>14</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>50</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="7">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="7">
-        <v>4</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11">
+      <c r="A25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13">
         <v>8</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1">
         <v>4</v>
       </c>
@@ -3543,14 +3588,14 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
+      <c r="A26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
         <v>28</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1">
         <v>6.5</v>
       </c>
@@ -3565,187 +3610,187 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
+      <c r="A27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
         <v>42</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7" t="s">
-        <v>80</v>
+      <c r="A29" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7" t="s">
-        <v>82</v>
+      <c r="A30" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="7">
-        <v>4</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="7">
-        <v>4</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="7">
-        <v>4</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="5">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A38" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>5</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="7">
-        <v>8</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>5</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7" t="s">
-        <v>98</v>
+      <c r="A40" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="7">
+        <v>100</v>
+      </c>
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="A42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="5">
         <v>186</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3765,21 +3810,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" ht="14.25" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3811,9 +3856,27 @@
       <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="4"/>
@@ -3823,7 +3886,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="2">
@@ -3840,7 +3903,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2">
@@ -3848,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="2">
@@ -3862,7 +3925,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="2">
@@ -3876,7 +3939,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="2">
@@ -3890,7 +3953,7 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1"/>
@@ -3900,7 +3963,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="1">
@@ -3908,7 +3971,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="4"/>
@@ -3917,7 +3980,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3931,7 +3994,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3942,7 +4005,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3953,7 +4016,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3967,62 +4030,78 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
+      <c r="A17" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4031,9 +4110,26 @@
       <c r="D20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4045,9 +4141,18 @@
       <c r="D21" s="2">
         <v>4</v>
       </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4058,86 +4163,95 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
+    <row r="24" s="1" customFormat="1" spans="1:14">
+      <c r="A24" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
       </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>77</v>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:14">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="1">
         <v>28</v>
       </c>
-      <c r="F25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>48</v>
       </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
+      <c r="A27" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>80</v>
+      <c r="A28" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>82</v>
+      <c r="A29" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -4145,10 +4259,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -4156,10 +4270,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -4167,10 +4281,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -4178,10 +4292,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -4189,10 +4303,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -4200,7 +4314,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -4208,16 +4322,66 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25"/>
+    <row r="40" spans="6:17">
+      <c r="F40" s="2">
+        <f>SUM(F2:F39)</f>
+        <v>22.5</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" ref="G40:Q40" si="0">SUM(G2:G39)</f>
+        <v>17.5</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2">
         <v>187</v>
@@ -4235,7 +4399,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4426,7 +4590,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -4434,10 +4601,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -4445,10 +4612,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -4478,7 +4645,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -4492,7 +4659,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1">
         <v>28</v>
@@ -4512,7 +4679,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
@@ -4520,7 +4687,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -4528,10 +4695,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -4539,7 +4706,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -4547,10 +4714,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -4558,10 +4725,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -4569,10 +4736,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -4580,10 +4747,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -4591,10 +4758,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -4602,10 +4769,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -4613,7 +4780,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
@@ -4621,7 +4788,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4631,7 +4798,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -4639,10 +4806,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -4650,10 +4817,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -4661,19 +4828,19 @@
     </row>
     <row r="36" ht="36" customHeight="1" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4683,19 +4850,19 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" s="2">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4713,7 +4880,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:F36"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4911,7 +5078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -4919,51 +5086,54 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5010,15 +5180,15 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -5032,7 +5202,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -5052,7 +5222,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>33</v>
@@ -5060,7 +5230,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -5068,7 +5238,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -5076,7 +5246,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -5084,51 +5254,51 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -5136,41 +5306,41 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
@@ -5178,7 +5348,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2">
         <v>186</v>
@@ -5203,7 +5373,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B34"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5401,7 +5571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -5409,51 +5579,54 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5500,15 +5673,15 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -5522,7 +5695,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -5542,7 +5715,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>28</v>
@@ -5550,7 +5723,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -5558,7 +5731,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -5569,73 +5742,73 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
@@ -5643,7 +5816,7 @@
     </row>
     <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1">
         <v>13</v>
@@ -5655,7 +5828,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2">
         <v>190</v>
@@ -5677,7 +5850,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5875,7 +6048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -5883,51 +6056,54 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5974,15 +6150,15 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -5996,7 +6172,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -6016,7 +6192,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>26</v>
@@ -6024,18 +6200,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -6046,7 +6222,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -6054,7 +6230,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -6062,51 +6238,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1">
         <v>23</v>
@@ -6118,7 +6294,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2">
         <v>188</v>
@@ -6139,8 +6315,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6338,7 +6514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -6346,51 +6522,54 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6437,15 +6616,15 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -6459,7 +6638,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -6479,7 +6658,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1">
         <v>45</v>
@@ -6487,7 +6666,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -6495,7 +6674,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -6503,7 +6682,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -6511,7 +6690,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -6519,7 +6698,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -6527,7 +6706,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -6535,7 +6714,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -6543,7 +6722,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -6551,7 +6730,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -6559,7 +6738,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -6567,7 +6746,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -6575,7 +6754,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2">
         <v>186</v>
@@ -6597,7 +6776,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -6659,7 +6838,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -6717,7 +6896,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -6731,7 +6910,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -6768,7 +6947,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -6776,7 +6955,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -6784,7 +6963,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -6792,7 +6971,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -6800,7 +6979,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -6808,7 +6987,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -6816,7 +6995,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -6824,7 +7003,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -6832,7 +7011,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -6840,7 +7019,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -6848,7 +7027,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -6856,7 +7035,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B24" s="1">
         <v>45</v>
@@ -6864,7 +7043,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -6872,7 +7051,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -6880,7 +7059,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -6888,7 +7067,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -6896,7 +7075,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -6904,7 +7083,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -6912,7 +7091,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -6920,7 +7099,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -6928,7 +7107,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -6936,7 +7115,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -6944,7 +7123,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -6952,7 +7131,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -6960,7 +7139,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
@@ -6968,7 +7147,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2">
         <v>198</v>
